--- a/data/trans_camb/PCS12_SP_R3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R3-Estudios-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12)</t>
+          <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,39</t>
+          <t>13,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,05</t>
+          <t>12,01</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,35</t>
+          <t>13,01</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,94; 17,85</t>
+          <t>7,68; 17,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,26; 16,16</t>
+          <t>8,38; 16,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,31; 16,57</t>
+          <t>9,88; 16,14</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>41,9%</t>
+          <t>40,89%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>24,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>32,17%</t>
+          <t>31,33%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,49; 59,13</t>
+          <t>22,72; 58,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,32; 34,16</t>
+          <t>16,27; 33,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,85; 40,89</t>
+          <t>23,05; 40,29</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,09</t>
+          <t>18,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,7</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,49</t>
+          <t>12,93</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,39; 19,69</t>
+          <t>9,29; 41,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,82; 11,22</t>
+          <t>0,99; 10,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,31; 13,54</t>
+          <t>7,77; 25,79</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>140,18%</t>
+          <t>215,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>64,16%</t>
+          <t>52,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>95,27%</t>
+          <t>117,46%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>99,15; 233,05</t>
+          <t>102,54; 504,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,21; 90,82</t>
+          <t>9,02; 81,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>71,42; 128,13</t>
+          <t>70,66; 234,69</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>4,42</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,87; 8,51</t>
+          <t>1,67; 8,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 6,92</t>
+          <t>-0,57; 6,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,83; 6,99</t>
+          <t>1,72; 6,86</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>69,83%</t>
+          <t>67,69%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>26,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>46,52%</t>
+          <t>44,92%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,63; 141,66</t>
+          <t>17,2; 137,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 67,25</t>
+          <t>-4,45; 65,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,03; 83,08</t>
+          <t>14,77; 80,2</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,3</t>
+          <t>11,32</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>6,01</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,2; 11,44</t>
+          <t>5,23; 29,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,5</t>
+          <t>-4,57; 3,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,84</t>
+          <t>2,7; 14,77</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>46,19%</t>
+          <t>71,68%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>27,82%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>31,34; 75,12</t>
+          <t>32,77; 191,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 17,21</t>
+          <t>-16,29; 13,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,18; 32,53</t>
+          <t>12,5; 68,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/PCS12_SP_R3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R3-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 8,77</t>
+          <t>-0,69; 8,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 8,69</t>
+          <t>-0,32; 8,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,68; 17,68</t>
+          <t>8,28; 17,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 7,38</t>
+          <t>-0,94; 7,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 6,24</t>
+          <t>-2,23; 6,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,38; 16,1</t>
+          <t>8,28; 15,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 6,85</t>
+          <t>1,15; 6,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 6,05</t>
+          <t>-0,11; 5,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,88; 16,14</t>
+          <t>10,07; 16,16</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 28,96</t>
+          <t>-1,89; 26,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 29,18</t>
+          <t>-0,94; 28,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,72; 58,1</t>
+          <t>24,51; 59,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 15,53</t>
+          <t>-1,84; 15,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 13,36</t>
+          <t>-4,59; 13,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,27; 33,83</t>
+          <t>16,07; 33,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,7; 17,14</t>
+          <t>2,67; 17,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 14,96</t>
+          <t>-0,2; 15,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,05; 40,29</t>
+          <t>23,47; 40,65</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 4,08</t>
+          <t>0,24; 4,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 5,15</t>
+          <t>1,49; 5,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,29; 41,34</t>
+          <t>9,15; 41,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,68</t>
+          <t>0,41; 5,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 6,41</t>
+          <t>1,26; 6,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 10,39</t>
+          <t>1,24; 10,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 4,13</t>
+          <t>0,9; 4,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,97; 5,16</t>
+          <t>1,95; 5,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 25,79</t>
+          <t>7,71; 28,91</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 53,46</t>
+          <t>2,4; 54,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,57; 67,32</t>
+          <t>15,46; 66,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>102,54; 504,92</t>
+          <t>100,93; 507,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,76; 45,52</t>
+          <t>2,7; 44,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,03; 52,47</t>
+          <t>8,66; 51,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,02; 81,49</t>
+          <t>9,06; 80,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,5; 40,14</t>
+          <t>7,65; 40,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,73; 49,83</t>
+          <t>16,5; 49,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>70,66; 234,69</t>
+          <t>68,02; 279,09</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 5,71</t>
+          <t>-1,58; 5,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 4,63</t>
+          <t>-2,7; 4,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,67; 8,38</t>
+          <t>1,51; 8,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 1,34</t>
+          <t>-6,97; 1,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 4,59</t>
+          <t>-4,02; 4,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 6,74</t>
+          <t>-0,62; 7,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 2,92</t>
+          <t>-2,87; 2,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 3,4</t>
+          <t>-1,9; 3,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 6,86</t>
+          <t>1,77; 6,86</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,51; 92,21</t>
+          <t>-17,74; 99,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,5; 78,23</t>
+          <t>-28,79; 74,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,2; 137,98</t>
+          <t>15,22; 142,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-49,38; 12,89</t>
+          <t>-47,86; 12,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,1; 46,39</t>
+          <t>-28,0; 49,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 65,97</t>
+          <t>-4,54; 70,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,05; 33,83</t>
+          <t>-26,44; 28,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 38,46</t>
+          <t>-17,28; 45,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,77; 80,2</t>
+          <t>15,78; 82,93</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,1; 3,92</t>
+          <t>0,36; 4,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,65</t>
+          <t>-1,05; 2,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,23; 29,66</t>
+          <t>5,22; 29,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,21</t>
+          <t>-0,41; 4,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 1,29</t>
+          <t>-3,33; 0,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 3,71</t>
+          <t>-4,63; 3,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,41</t>
+          <t>0,57; 3,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,34</t>
+          <t>-1,52; 1,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,7; 14,77</t>
+          <t>2,84; 14,29</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,49; 25,84</t>
+          <t>2,18; 27,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 17,87</t>
+          <t>-6,35; 18,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>32,77; 191,82</t>
+          <t>32,15; 184,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 16,06</t>
+          <t>-1,28; 15,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 4,88</t>
+          <t>-11,81; 3,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 13,88</t>
+          <t>-16,48; 13,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,64; 16,26</t>
+          <t>2,57; 16,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 6,41</t>
+          <t>-6,86; 6,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12,5; 68,75</t>
+          <t>12,97; 68,41</t>
         </is>
       </c>
     </row>
